--- a/hw01_calc/TouchGFX/assets/texts/texts.xlsx
+++ b/hw01_calc/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="87">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t xml:space="preserve">result :p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleepy</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2056,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/hw01_calc/TouchGFX/assets/texts/texts.xlsx
+++ b/hw01_calc/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="95">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -276,6 +276,30 @@
   </si>
   <si>
     <t xml:space="preserve">sleepy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res_txt_debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicked: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clicked</t>
   </si>
 </sst>
 </file>
@@ -2059,6 +2083,24 @@
         <v>86</v>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/hw01_calc/TouchGFX/assets/texts/texts.xlsx
+++ b/hw01_calc/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="103">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -300,6 +300,30 @@
   </si>
   <si>
     <t xml:space="preserve">clicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;result&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -1759,6 +1783,9 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
@@ -2068,7 +2095,7 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -2080,27 +2107,80 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/hw01_calc/TouchGFX/assets/texts/texts.xlsx
+++ b/hw01_calc/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="108">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -324,6 +324,21 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z,A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">" "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"+-*/. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"+-*/."</t>
   </si>
 </sst>
 </file>
@@ -1565,9 +1580,13 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
         <v>9</v>
@@ -1586,23 +1605,6 @@
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
@@ -1620,23 +1622,6 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="L6" s="7" t="s">

--- a/hw01_calc/TouchGFX/assets/texts/texts.xlsx
+++ b/hw01_calc/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4785" uniqueCount="111">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -339,6 +339,15 @@
   </si>
   <si>
     <t xml:space="preserve">"+-*/."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTUST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
   </si>
 </sst>
 </file>
@@ -1768,9 +1777,6 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
@@ -1990,7 +1996,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
@@ -2114,7 +2120,7 @@
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -2126,15 +2132,12 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -2146,12 +2149,12 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
@@ -2163,7 +2166,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
